--- a/Mini_Project/data.xlsx
+++ b/Mini_Project/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91797\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91797\Desktop\ML_Intern_Technocolab\Mini_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{183A307F-9C84-40D1-B9AE-68CF7ADC1491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315D8EA-D5DD-40A5-A521-EABE4C7C12A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5B8443AC-DBC0-4063-A928-EAC38335A4F1}"/>
   </bookViews>
@@ -815,7 +815,7 @@
     <tableColumn id="23" xr3:uid="{3D225786-8047-469D-B115-4E651E0575B2}" uniqueName="23" name="D2" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{5C3390B3-7662-4772-A220-081CE2A47876}" uniqueName="24" name="PPE" queryTableFieldId="24"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1AFED1-D94B-48EC-B1D7-DB9AB8E0AFC0}">
   <dimension ref="A1:X196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
